--- a/15_レビュー結果記録2回目 (要求分析).xlsx
+++ b/15_レビュー結果記録2回目 (要求分析).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F27B95AF-9742-4FCB-8174-5E8DFF007218}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F43F04-DFC9-429C-9908-52F0222D8D22}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="15" windowWidth="10560" windowHeight="10845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="63">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -308,26 +308,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>浅川、川端、立石、舟橋、三上、鄭、国正（敬称略）</t>
-    <rPh sb="15" eb="16">
-      <t>ジョン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>クニマサ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ケイショウリャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>国正</t>
-    <rPh sb="0" eb="2">
-      <t>クニマサ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>三上</t>
     <rPh sb="0" eb="2">
       <t>ミカミ</t>
@@ -422,6 +402,150 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蜂須賀</t>
+    <rPh sb="0" eb="3">
+      <t>ハチスカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>浅川、川端、立石、舟橋、三上、鄭、蜂須賀（敬称略）</t>
+    <rPh sb="15" eb="16">
+      <t>ジョン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ハチスカ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ケイショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シナリオ1で”3つ並んでいる”と”勝利判定”の違いがあるのか</t>
+    <rPh sb="9" eb="10">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蜂須賀</t>
+    <rPh sb="0" eb="3">
+      <t>ハチスカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <t>指摘なし</t>
+    <rPh sb="0" eb="2">
+      <t>シテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次回のレビューまでに訂正する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代替系列での分岐（マスが被る場合、範囲外を選択した場合）の見直し、重複点の削除</t>
+    <rPh sb="0" eb="2">
+      <t>ダイタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ハンイガイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本系列・代替系列ともに流れが前後している</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイレツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ダイタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイレツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゼンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N02-01で要求に対する対応の欄に反復2で行うことを追記する</t>
+    <rPh sb="7" eb="9">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ツイキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -760,7 +884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -822,6 +946,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -834,38 +985,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1316,8 +1443,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A2" zoomScale="92" zoomScaleNormal="85" zoomScalePageLayoutView="92" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="92" zoomScaleNormal="85" zoomScalePageLayoutView="92" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1329,10 +1456,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
@@ -1341,78 +1468,78 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="35"/>
+    </row>
+    <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="27"/>
-    </row>
-    <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
+        <v>40</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1421,78 +1548,86 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="32"/>
+      <c r="A10" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="24"/>
       <c r="C10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="32"/>
+      <c r="A11" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="24"/>
       <c r="C11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="15" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
     </row>
@@ -1500,24 +1635,13 @@
       <c r="C20" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="18" t="str">
+      <c r="D20" s="18">
         <f>IF(SUM(D10:D19)=0,"",SUM(D10:D19))</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -1528,6 +1652,17 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1547,8 +1682,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="99" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1559,6 +1694,7 @@
     <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="53.375" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -1589,61 +1725,111 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="10">
+        <v>43986</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="10">
+        <v>43986</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="10">
+        <v>43986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="10">
+        <v>43986</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
@@ -1830,10 +2016,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
@@ -1842,10 +2028,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="8" t="s">
         <v>35</v>
       </c>
@@ -1855,66 +2041,66 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1923,10 +2109,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="15" t="s">
         <v>27</v>
       </c>
@@ -1935,10 +2121,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="15" t="s">
         <v>17</v>
       </c>
@@ -1947,10 +2133,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="32"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="15" t="s">
         <v>27</v>
       </c>
@@ -1959,44 +2145,44 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
     </row>
@@ -2011,18 +2197,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
@@ -2032,6 +2206,18 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2316,6 +2502,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2499,22 +2700,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C0FD4E-A67E-4A69-8424-0BC1A4377251}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2530,28 +2740,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>